--- a/data/trans_orig/P1406-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1406-Clase-trans_orig.xlsx
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6535</v>
+        <v>7158</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004769214401670016</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01494655340923078</v>
+        <v>0.01637236432638722</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7081</v>
+        <v>7329</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006321057452613843</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0225193383624222</v>
+        <v>0.02330674527784937</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -784,19 +784,19 @@
         <v>4073</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1008</v>
+        <v>986</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9511</v>
+        <v>10225</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005418418006220964</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001341355009175989</v>
+        <v>0.001311363597849289</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01265316168154998</v>
+        <v>0.01360303820263385</v>
       </c>
     </row>
     <row r="5">
@@ -813,7 +813,7 @@
         <v>435126</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>430676</v>
+        <v>430053</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>437211</v>
@@ -822,7 +822,7 @@
         <v>0.99523078559833</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9850534465907698</v>
+        <v>0.9836276356736127</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -834,7 +834,7 @@
         <v>312466</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>307373</v>
+        <v>307125</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>314454</v>
@@ -843,7 +843,7 @@
         <v>0.9936789425473862</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9774806616375779</v>
+        <v>0.9766932547221489</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -855,19 +855,19 @@
         <v>747592</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>742154</v>
+        <v>741440</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>750657</v>
+        <v>750679</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.994581581993779</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9873468383184505</v>
+        <v>0.9863969617973659</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.998658644990824</v>
+        <v>0.9986886364021507</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>5060</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1938</v>
+        <v>1942</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10816</v>
+        <v>11204</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01208291621128563</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00462849530841089</v>
+        <v>0.004638283681732946</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02582518468265993</v>
+        <v>0.02675185039571942</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -980,19 +980,19 @@
         <v>4059</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11126</v>
+        <v>10975</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01200889954282381</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002863369582611191</v>
+        <v>0.002867156929599957</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03291474270636581</v>
+        <v>0.03246853988285602</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -1001,19 +1001,19 @@
         <v>9119</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4059</v>
+        <v>3989</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>18283</v>
+        <v>17370</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01204985835043346</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005363681661328504</v>
+        <v>0.00527030591824631</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0241582342712076</v>
+        <v>0.02295122803692491</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>413737</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>407981</v>
+        <v>407593</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>416859</v>
+        <v>416855</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9879170837887143</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9741748153173395</v>
+        <v>0.9732481496042805</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.995371504691589</v>
+        <v>0.9953617163182671</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>302</v>
@@ -1051,19 +1051,19 @@
         <v>333952</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>326885</v>
+        <v>327036</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>337043</v>
+        <v>337042</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9879911004571762</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.967085257293634</v>
+        <v>0.967531460117144</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9971366304173888</v>
+        <v>0.9971328430704001</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>672</v>
@@ -1072,19 +1072,19 @@
         <v>747689</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>738525</v>
+        <v>739438</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>752749</v>
+        <v>752819</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9879501416495665</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9758417657287924</v>
+        <v>0.9770487719630752</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9946363183386715</v>
+        <v>0.9947296940817537</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>4045</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9582</v>
+        <v>9781</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006427292802661667</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001665966424164179</v>
+        <v>0.001659047711187672</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01522391900116144</v>
+        <v>0.01553935006938186</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6699</v>
+        <v>6921</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008231286659909189</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02575330344292465</v>
+        <v>0.02660654081913943</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -1218,19 +1218,19 @@
         <v>6187</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2133</v>
+        <v>2137</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12279</v>
+        <v>13297</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006954834736583101</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00239800732018821</v>
+        <v>0.002402730288799769</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01380408301022335</v>
+        <v>0.01494761779742855</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>625370</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>619833</v>
+        <v>619634</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>628366</v>
+        <v>628371</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9935727071973384</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9847760809988386</v>
+        <v>0.9844606499306183</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9983340335758358</v>
+        <v>0.9983409522888124</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>242</v>
@@ -1268,7 +1268,7 @@
         <v>257988</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>253430</v>
+        <v>253208</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>260129</v>
@@ -1277,7 +1277,7 @@
         <v>0.9917687133400908</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9742466965570754</v>
+        <v>0.9733934591808608</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1289,19 +1289,19 @@
         <v>883357</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>877265</v>
+        <v>876247</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>887411</v>
+        <v>887407</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9930451652634169</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9861959169897775</v>
+        <v>0.9850523822025715</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9976019926798119</v>
+        <v>0.9975972697112002</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>23198</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14639</v>
+        <v>14534</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35642</v>
+        <v>34872</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02001523542103063</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01263101420185556</v>
+        <v>0.01254011697392502</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03075198345556007</v>
+        <v>0.03008771960198302</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -1414,19 +1414,19 @@
         <v>11643</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5977</v>
+        <v>6325</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20648</v>
+        <v>21632</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01522557174822524</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0078156948223825</v>
+        <v>0.008270554473923436</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.027001268755672</v>
+        <v>0.0282875186653394</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>31</v>
@@ -1435,19 +1435,19 @@
         <v>34841</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24783</v>
+        <v>23223</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>48854</v>
+        <v>49625</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01811124714703294</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0128829675476137</v>
+        <v>0.01207191448655301</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02539568075308652</v>
+        <v>0.0257960223634908</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>1135811</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1123367</v>
+        <v>1124137</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1144370</v>
+        <v>1144475</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9799847645789693</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.96924801654444</v>
+        <v>0.9699122803980168</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9873689857981446</v>
+        <v>0.9874598830260749</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>700</v>
@@ -1485,19 +1485,19 @@
         <v>753079</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>744074</v>
+        <v>743090</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>758745</v>
+        <v>758397</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9847744282517747</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9729987312443279</v>
+        <v>0.9717124813346601</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9921843051776175</v>
+        <v>0.9917294455260766</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1762</v>
@@ -1506,19 +1506,19 @@
         <v>1888890</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1874877</v>
+        <v>1874106</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1898948</v>
+        <v>1900508</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9818887528529671</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9746043192469135</v>
+        <v>0.9742039776365099</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9871170324523862</v>
+        <v>0.987928085513447</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>6183</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2571</v>
+        <v>2727</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13198</v>
+        <v>12712</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01211002404572893</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00503437722795315</v>
+        <v>0.005341006147022799</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02584867400044918</v>
+        <v>0.02489699001333217</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -1631,19 +1631,19 @@
         <v>14903</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7862</v>
+        <v>8521</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23725</v>
+        <v>24630</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01960248533005684</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01034120300585567</v>
+        <v>0.0112082246307106</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03120674258952215</v>
+        <v>0.03239772880069146</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>20</v>
@@ -1652,19 +1652,19 @@
         <v>21086</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>13497</v>
+        <v>12937</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>32169</v>
+        <v>31848</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01659218105080374</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01062045365566043</v>
+        <v>0.010180059826668</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02531349729433049</v>
+        <v>0.02506073843054026</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>504413</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>497398</v>
+        <v>497884</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>508025</v>
+        <v>507869</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9878899759542711</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9741513259995507</v>
+        <v>0.9751030099866678</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9949656227720465</v>
+        <v>0.9946589938529771</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>688</v>
@@ -1702,19 +1702,19 @@
         <v>745343</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>736521</v>
+        <v>735616</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>752384</v>
+        <v>751725</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9803975146699432</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9687932574104779</v>
+        <v>0.9676022711993086</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9896587969941466</v>
+        <v>0.9887917753692894</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1169</v>
@@ -1723,19 +1723,19 @@
         <v>1249757</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1238674</v>
+        <v>1238995</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1257346</v>
+        <v>1257906</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9834078189491963</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9746865027056697</v>
+        <v>0.9749392615694594</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9893795463443398</v>
+        <v>0.989819940173332</v>
       </c>
     </row>
     <row r="18">
@@ -1840,19 +1840,19 @@
         <v>8385</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3261</v>
+        <v>3994</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16529</v>
+        <v>15498</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.007566730018412586</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.002943031498276601</v>
+        <v>0.003604364440981741</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.014915800395808</v>
+        <v>0.01398546521678672</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -1861,19 +1861,19 @@
         <v>8385</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4098</v>
+        <v>3996</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>15465</v>
+        <v>15745</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.006098112227552696</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.002980221915812071</v>
+        <v>0.00290581616780247</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01124701757205343</v>
+        <v>0.01145059387114755</v>
       </c>
     </row>
     <row r="20">
@@ -1903,19 +1903,19 @@
         <v>1099784</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1091640</v>
+        <v>1092671</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1104908</v>
+        <v>1104175</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9924332699815874</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9850841996041922</v>
+        <v>0.9860145347832133</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9970569685017238</v>
+        <v>0.9963956355590183</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1300</v>
@@ -1924,19 +1924,19 @@
         <v>1366666</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1359586</v>
+        <v>1359306</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1370953</v>
+        <v>1371055</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9939018877724473</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9887529824279462</v>
+        <v>0.9885494061288522</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9970197780841878</v>
+        <v>0.9970941838321975</v>
       </c>
     </row>
     <row r="21">
@@ -2028,19 +2028,19 @@
         <v>40572</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>28943</v>
+        <v>28650</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>55591</v>
+        <v>54838</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01185655099582089</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.008458054638809139</v>
+        <v>0.008372475054105977</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01624546099354618</v>
+        <v>0.01602541160432489</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>39</v>
@@ -2049,19 +2049,19 @@
         <v>43119</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>31061</v>
+        <v>30552</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>59712</v>
+        <v>59181</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01216089893201215</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.008760020665960598</v>
+        <v>0.008616545808462949</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01684043832530462</v>
+        <v>0.0166906647431369</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>77</v>
@@ -2070,19 +2070,19 @@
         <v>83691</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>67203</v>
+        <v>66396</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>105445</v>
+        <v>105186</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01201142924556465</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009644955424254356</v>
+        <v>0.009529150732634863</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01513348486152893</v>
+        <v>0.01509629335510556</v>
       </c>
     </row>
     <row r="23">
@@ -2099,19 +2099,19 @@
         <v>3381338</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3366319</v>
+        <v>3367072</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3392967</v>
+        <v>3393260</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9881434490041791</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9837545390064538</v>
+        <v>0.9839745883956752</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9915419453611909</v>
+        <v>0.9916275249458941</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3248</v>
@@ -2120,19 +2120,19 @@
         <v>3502613</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3486020</v>
+        <v>3486551</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3514671</v>
+        <v>3515180</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9878391010679879</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9831595616746953</v>
+        <v>0.983309335256863</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9912399793340394</v>
+        <v>0.9913834541915371</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6415</v>
@@ -2141,19 +2141,19 @@
         <v>6883951</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6862197</v>
+        <v>6862456</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6900439</v>
+        <v>6901246</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9879885707544354</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.984866515138471</v>
+        <v>0.9849037066448945</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9903550445757455</v>
+        <v>0.9904708492673652</v>
       </c>
     </row>
     <row r="24">
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7346</v>
+        <v>7042</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005803134092673902</v>
@@ -2512,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02116585318288884</v>
+        <v>0.02028963881695112</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7041</v>
+        <v>7095</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.002594877485283292</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.009072092338011253</v>
+        <v>0.009141487446370852</v>
       </c>
     </row>
     <row r="5">
@@ -2563,7 +2563,7 @@
         <v>345041</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>339709</v>
+        <v>340013</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>347055</v>
@@ -2572,7 +2572,7 @@
         <v>0.9941968659073261</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9788341468171136</v>
+        <v>0.9797103611830489</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2584,7 +2584,7 @@
         <v>774133</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>769106</v>
+        <v>769052</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>776147</v>
@@ -2593,7 +2593,7 @@
         <v>0.9974051225147167</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9909279076619888</v>
+        <v>0.9908585125536302</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -2691,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7338</v>
+        <v>7555</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005704324300985484</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01945283487632046</v>
+        <v>0.02002778617757496</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6969</v>
+        <v>6662</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.002871013153069671</v>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.009298771829125111</v>
+        <v>0.008888081600166931</v>
       </c>
     </row>
     <row r="8">
@@ -2751,7 +2751,7 @@
         <v>375075</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>369889</v>
+        <v>369672</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>377227</v>
@@ -2760,7 +2760,7 @@
         <v>0.9942956756990146</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9805471651236796</v>
+        <v>0.9799722138224256</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -2785,7 +2785,7 @@
         <v>747348</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>742531</v>
+        <v>742838</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>749500</v>
@@ -2794,7 +2794,7 @@
         <v>0.9971289868469303</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9907012281708754</v>
+        <v>0.9911119183998331</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4379</v>
+        <v>4502</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.001656777330523147</v>
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.008390245736718639</v>
+        <v>0.008626392858201609</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5593</v>
+        <v>5398</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006657445360517572</v>
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03366618657914022</v>
+        <v>0.03249398677709574</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -2934,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7944</v>
+        <v>7403</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002864162406566602</v>
@@ -2943,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01154524600130627</v>
+        <v>0.01075936392112537</v>
       </c>
     </row>
     <row r="11">
@@ -2960,7 +2960,7 @@
         <v>521049</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>517535</v>
+        <v>517412</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>521914</v>
@@ -2969,7 +2969,7 @@
         <v>0.9983432226694768</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9916097542632814</v>
+        <v>0.9913736071418006</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -2981,7 +2981,7 @@
         <v>165017</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>160530</v>
+        <v>160725</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>166123</v>
@@ -2990,7 +2990,7 @@
         <v>0.9933425546394824</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9663338134208599</v>
+        <v>0.9675060132229001</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3002,7 +3002,7 @@
         <v>686065</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>680092</v>
+        <v>680633</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>688036</v>
@@ -3011,7 +3011,7 @@
         <v>0.9971358375934334</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9884547539986936</v>
+        <v>0.9892406360788751</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -3106,19 +3106,19 @@
         <v>8367</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3991</v>
+        <v>3671</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17260</v>
+        <v>16373</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.007278062654504478</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003471551126641497</v>
+        <v>0.003193367914526967</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01501321451442639</v>
+        <v>0.01424183276832191</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -3127,19 +3127,19 @@
         <v>9350</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4395</v>
+        <v>4877</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16479</v>
+        <v>17267</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01132120258114867</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.00532105544513627</v>
+        <v>0.005905830333995124</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01995387942711407</v>
+        <v>0.02090772196602693</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -3148,19 +3148,19 @@
         <v>17717</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10376</v>
+        <v>10503</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>28290</v>
+        <v>27432</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.008968322136319623</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005252171993695751</v>
+        <v>0.005316833935476537</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01432055935219283</v>
+        <v>0.01388595371019154</v>
       </c>
     </row>
     <row r="14">
@@ -3177,19 +3177,19 @@
         <v>1141271</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1132378</v>
+        <v>1133265</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1145647</v>
+        <v>1145967</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9927219373454955</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9849867854855737</v>
+        <v>0.9857581672316778</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9965284488733586</v>
+        <v>0.996806632085473</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>789</v>
@@ -3198,19 +3198,19 @@
         <v>816526</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>809397</v>
+        <v>808609</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>821481</v>
+        <v>820999</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9886787974188513</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.980046120572886</v>
+        <v>0.9790922780339733</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9946789445548638</v>
+        <v>0.9940941696660048</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1884</v>
@@ -3219,19 +3219,19 @@
         <v>1957797</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1947224</v>
+        <v>1948082</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1965138</v>
+        <v>1965011</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9910316778636804</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9856794406478074</v>
+        <v>0.9861140462898099</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9947478280063043</v>
+        <v>0.9946831660645236</v>
       </c>
     </row>
     <row r="15">
@@ -3323,19 +3323,19 @@
         <v>3866</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12300</v>
+        <v>11227</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006227743834121084</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001688408004241212</v>
+        <v>0.001695001825587817</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01981620942581274</v>
+        <v>0.01808746828592215</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -3344,19 +3344,19 @@
         <v>8459</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3491</v>
+        <v>3405</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17791</v>
+        <v>17196</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01145845178056236</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004728140110245633</v>
+        <v>0.004612007173310493</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02409840911882022</v>
+        <v>0.02329295600068943</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -3365,19 +3365,19 @@
         <v>12325</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6468</v>
+        <v>6628</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>22152</v>
+        <v>22646</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009069304896442061</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004759734069173365</v>
+        <v>0.004877178903347395</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01630105991035428</v>
+        <v>0.01666461058368329</v>
       </c>
     </row>
     <row r="17">
@@ -3394,19 +3394,19 @@
         <v>616840</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>608406</v>
+        <v>609479</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>619658</v>
+        <v>619654</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9937722561658789</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9801837905741871</v>
+        <v>0.9819125317140779</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9983115919957588</v>
+        <v>0.9983049981744122</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>692</v>
@@ -3415,19 +3415,19 @@
         <v>729785</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>720453</v>
+        <v>721048</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>734753</v>
+        <v>734839</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9885415482194376</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9759015908811797</v>
+        <v>0.9767070439993103</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9952718598897543</v>
+        <v>0.9953879928266895</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1286</v>
@@ -3436,19 +3436,19 @@
         <v>1346625</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1336798</v>
+        <v>1336304</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1352482</v>
+        <v>1352322</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9909306951035579</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9836989400896455</v>
+        <v>0.9833353894163167</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9952402659308265</v>
+        <v>0.9951228210966526</v>
       </c>
     </row>
     <row r="18">
@@ -3553,19 +3553,19 @@
         <v>13337</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7206</v>
+        <v>7235</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22695</v>
+        <v>22940</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01232596907664784</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.006660084930755824</v>
+        <v>0.006686107651157468</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02097411430627035</v>
+        <v>0.02120143880576813</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>12</v>
@@ -3574,19 +3574,19 @@
         <v>13337</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6775</v>
+        <v>6921</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>22461</v>
+        <v>22321</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.009740941498743064</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.004948469568474232</v>
+        <v>0.005054926464237624</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01640492690196963</v>
+        <v>0.01630267036646497</v>
       </c>
     </row>
     <row r="20">
@@ -3616,19 +3616,19 @@
         <v>1068688</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1059330</v>
+        <v>1059085</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1074819</v>
+        <v>1074790</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9876740309233522</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9790258856937299</v>
+        <v>0.9787985611942319</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9933399150692445</v>
+        <v>0.9933138923488426</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1252</v>
@@ -3637,19 +3637,19 @@
         <v>1355833</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1346709</v>
+        <v>1346849</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1362395</v>
+        <v>1362249</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.990259058501257</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9835950730980302</v>
+        <v>0.983697329633535</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9950515304315257</v>
+        <v>0.9949450735357622</v>
       </c>
     </row>
     <row r="21">
@@ -3741,19 +3741,19 @@
         <v>15249</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8608</v>
+        <v>9388</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25126</v>
+        <v>26129</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004503989574217631</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002542531076201613</v>
+        <v>0.002772682023103631</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.007421153888173045</v>
+        <v>0.007717306031351333</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>31</v>
@@ -3762,19 +3762,19 @@
         <v>34266</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>23934</v>
+        <v>23621</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>48239</v>
+        <v>47780</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.009702697618503673</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.006777067961945148</v>
+        <v>0.006688512078906292</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01365936361628852</v>
+        <v>0.01352927729905232</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>45</v>
@@ -3783,19 +3783,19 @@
         <v>49515</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>36245</v>
+        <v>36999</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>65717</v>
+        <v>65692</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.007158159261014763</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.005239778191846855</v>
+        <v>0.0053487443028108</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.009500367903571245</v>
+        <v>0.009496713066139844</v>
       </c>
     </row>
     <row r="23">
@@ -3812,19 +3812,19 @@
         <v>3370473</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3360596</v>
+        <v>3359593</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3377114</v>
+        <v>3376334</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9954960104257824</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9925788461118276</v>
+        <v>0.9922826939686484</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9974574689237985</v>
+        <v>0.9972273179768962</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3295</v>
@@ -3833,19 +3833,19 @@
         <v>3497330</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3483357</v>
+        <v>3483816</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3507662</v>
+        <v>3507975</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9902973023814964</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9863406363837115</v>
+        <v>0.9864707227009477</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9932229320380549</v>
+        <v>0.9933114879210938</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6505</v>
@@ -3854,19 +3854,19 @@
         <v>6867803</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6851601</v>
+        <v>6851626</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6881073</v>
+        <v>6880319</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9928418407389852</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9904996320964288</v>
+        <v>0.9905032869338612</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.994760221808153</v>
+        <v>0.9946512556971894</v>
       </c>
     </row>
     <row r="24">
